--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H2">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N2">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q2">
-        <v>4469.852788442457</v>
+        <v>5016.587971452791</v>
       </c>
       <c r="R2">
-        <v>40228.67509598212</v>
+        <v>45149.29174307513</v>
       </c>
       <c r="S2">
-        <v>0.686362819450847</v>
+        <v>0.7188024019728346</v>
       </c>
       <c r="T2">
-        <v>0.686362819450847</v>
+        <v>0.7188024019728347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H3">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I3">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J3">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O3">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P3">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q3">
-        <v>731.6828121318307</v>
+        <v>775.1405546075026</v>
       </c>
       <c r="R3">
-        <v>6585.145309186477</v>
+        <v>6976.264991467525</v>
       </c>
       <c r="S3">
-        <v>0.1123526661050333</v>
+        <v>0.111066106223803</v>
       </c>
       <c r="T3">
-        <v>0.1123526661050333</v>
+        <v>0.111066106223803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H4">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I4">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J4">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N4">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O4">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P4">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q4">
-        <v>3.276592638285666</v>
+        <v>2.626722596974</v>
       </c>
       <c r="R4">
-        <v>29.489333744571</v>
+        <v>23.640503372766</v>
       </c>
       <c r="S4">
-        <v>0.0005031332054649814</v>
+        <v>0.000376370258583235</v>
       </c>
       <c r="T4">
-        <v>0.0005031332054649814</v>
+        <v>0.0003763702585832351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H5">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I5">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J5">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N5">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O5">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P5">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q5">
-        <v>162.0244717716307</v>
+        <v>97.41344932823642</v>
       </c>
       <c r="R5">
-        <v>1458.220245944677</v>
+        <v>876.7210439541278</v>
       </c>
       <c r="S5">
-        <v>0.02487947109863577</v>
+        <v>0.01395789763083083</v>
       </c>
       <c r="T5">
-        <v>0.02487947109863577</v>
+        <v>0.01395789763083083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H6">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I6">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J6">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N6">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O6">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P6">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q6">
-        <v>7.974051626555887</v>
+        <v>18.960339004464</v>
       </c>
       <c r="R6">
-        <v>71.76646463900299</v>
+        <v>170.643051040176</v>
       </c>
       <c r="S6">
-        <v>0.001224445818663446</v>
+        <v>0.002716734421121115</v>
       </c>
       <c r="T6">
-        <v>0.001224445818663446</v>
+        <v>0.002716734421121115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="H7">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="I7">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="J7">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N7">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O7">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P7">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q7">
-        <v>20.49856607712555</v>
+        <v>6.299620136128443</v>
       </c>
       <c r="R7">
-        <v>184.48709469413</v>
+        <v>56.69658122515599</v>
       </c>
       <c r="S7">
-        <v>0.003147632432945953</v>
+        <v>0.0009026418177321847</v>
       </c>
       <c r="T7">
-        <v>0.003147632432945953</v>
+        <v>0.0009026418177321848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I8">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J8">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N8">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O8">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P8">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q8">
-        <v>731.6828121318307</v>
+        <v>775.1405546075026</v>
       </c>
       <c r="R8">
-        <v>6585.145309186477</v>
+        <v>6976.264991467525</v>
       </c>
       <c r="S8">
-        <v>0.1123526661050333</v>
+        <v>0.111066106223803</v>
       </c>
       <c r="T8">
-        <v>0.1123526661050333</v>
+        <v>0.111066106223803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q9">
         <v>119.771223552016</v>
@@ -1010,10 +1010,10 @@
         <v>1077.941011968144</v>
       </c>
       <c r="S9">
-        <v>0.01839132485499253</v>
+        <v>0.01716143395995954</v>
       </c>
       <c r="T9">
-        <v>0.01839132485499253</v>
+        <v>0.01716143395995954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I10">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J10">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N10">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O10">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P10">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q10">
-        <v>0.5363546920360001</v>
+        <v>0.4058693323440001</v>
       </c>
       <c r="R10">
-        <v>4.827192228324002</v>
+        <v>3.652823991096001</v>
       </c>
       <c r="S10">
-        <v>8.235929371172823E-05</v>
+        <v>5.815503538184557E-05</v>
       </c>
       <c r="T10">
-        <v>8.235929371172823E-05</v>
+        <v>5.815503538184558E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I11">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J11">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N11">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O11">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P11">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q11">
-        <v>26.52224284579867</v>
+        <v>15.05188697341867</v>
       </c>
       <c r="R11">
-        <v>238.700185612188</v>
+        <v>135.466982760768</v>
       </c>
       <c r="S11">
-        <v>0.00407259080765961</v>
+        <v>0.002156711408687548</v>
       </c>
       <c r="T11">
-        <v>0.00407259080765961</v>
+        <v>0.002156711408687548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I12">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J12">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N12">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O12">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P12">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q12">
-        <v>1.305295005081333</v>
+        <v>2.929666094784</v>
       </c>
       <c r="R12">
-        <v>11.747655045732</v>
+        <v>26.366994853056</v>
       </c>
       <c r="S12">
-        <v>0.0002004329901466206</v>
+        <v>0.0004197775535668051</v>
       </c>
       <c r="T12">
-        <v>0.0002004329901466206</v>
+        <v>0.0004197775535668051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,40 +1228,40 @@
         <v>32.83201200000001</v>
       </c>
       <c r="I13">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="J13">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N13">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O13">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P13">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q13">
-        <v>3.355468106413334</v>
+        <v>0.9733888997706667</v>
       </c>
       <c r="R13">
-        <v>30.19921295772001</v>
+        <v>8.760500097935999</v>
       </c>
       <c r="S13">
-        <v>0.0005152448322347918</v>
+        <v>0.0001394721438536293</v>
       </c>
       <c r="T13">
-        <v>0.0005152448322347918</v>
+        <v>0.0001394721438536293</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H14">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I14">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J14">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N14">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O14">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P14">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q14">
-        <v>3.276592638285666</v>
+        <v>2.626722596974</v>
       </c>
       <c r="R14">
-        <v>29.489333744571</v>
+        <v>23.640503372766</v>
       </c>
       <c r="S14">
-        <v>0.0005031332054649814</v>
+        <v>0.000376370258583235</v>
       </c>
       <c r="T14">
-        <v>0.0005031332054649814</v>
+        <v>0.0003763702585832351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H15">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I15">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J15">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O15">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P15">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q15">
-        <v>0.5363546920360001</v>
+        <v>0.4058693323440001</v>
       </c>
       <c r="R15">
-        <v>4.827192228324002</v>
+        <v>3.652823991096001</v>
       </c>
       <c r="S15">
-        <v>8.235929371172823E-05</v>
+        <v>5.815503538184557E-05</v>
       </c>
       <c r="T15">
-        <v>8.235929371172823E-05</v>
+        <v>5.815503538184558E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H16">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N16">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q16">
-        <v>0.002401882081</v>
+        <v>0.001375371396</v>
       </c>
       <c r="R16">
-        <v>0.021616938729</v>
+        <v>0.012378342564</v>
       </c>
       <c r="S16">
-        <v>3.688180875590038E-07</v>
+        <v>1.970702534621812E-07</v>
       </c>
       <c r="T16">
-        <v>3.688180875590038E-07</v>
+        <v>1.970702534621812E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H17">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I17">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J17">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N17">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O17">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P17">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q17">
-        <v>0.1187708447136667</v>
+        <v>0.05100640316799999</v>
       </c>
       <c r="R17">
-        <v>1.068937602423</v>
+        <v>0.459057628512</v>
       </c>
       <c r="S17">
-        <v>1.823771289672316E-05</v>
+        <v>7.308458522364064E-06</v>
       </c>
       <c r="T17">
-        <v>1.823771289672316E-05</v>
+        <v>7.308458522364065E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H18">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I18">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J18">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N18">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O18">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P18">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q18">
-        <v>0.005845319766333333</v>
+        <v>0.009927773855999999</v>
       </c>
       <c r="R18">
-        <v>0.05260787789700001</v>
+        <v>0.089349964704</v>
       </c>
       <c r="S18">
-        <v>8.975709817079496E-07</v>
+        <v>1.422502253432887E-06</v>
       </c>
       <c r="T18">
-        <v>8.975709817079496E-07</v>
+        <v>1.422502253432887E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="H19">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="I19">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="J19">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N19">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O19">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P19">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q19">
-        <v>0.01502632276333333</v>
+        <v>0.003298527736</v>
       </c>
       <c r="R19">
-        <v>0.13523690487</v>
+        <v>0.029686749624</v>
       </c>
       <c r="S19">
-        <v>2.307348753070166E-06</v>
+        <v>4.726299375398342E-07</v>
       </c>
       <c r="T19">
-        <v>2.307348753070166E-06</v>
+        <v>4.726299375398343E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H20">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I20">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J20">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N20">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O20">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P20">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q20">
-        <v>162.0244717716307</v>
+        <v>97.41344932823642</v>
       </c>
       <c r="R20">
-        <v>1458.220245944677</v>
+        <v>876.7210439541278</v>
       </c>
       <c r="S20">
-        <v>0.02487947109863577</v>
+        <v>0.01395789763083083</v>
       </c>
       <c r="T20">
-        <v>0.02487947109863577</v>
+        <v>0.01395789763083083</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H21">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I21">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J21">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O21">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P21">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q21">
-        <v>26.52224284579867</v>
+        <v>15.05188697341867</v>
       </c>
       <c r="R21">
-        <v>238.700185612188</v>
+        <v>135.466982760768</v>
       </c>
       <c r="S21">
-        <v>0.00407259080765961</v>
+        <v>0.002156711408687548</v>
       </c>
       <c r="T21">
-        <v>0.00407259080765961</v>
+        <v>0.002156711408687548</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H22">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I22">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J22">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N22">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O22">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P22">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q22">
-        <v>0.1187708447136667</v>
+        <v>0.05100640316799999</v>
       </c>
       <c r="R22">
-        <v>1.068937602423</v>
+        <v>0.459057628512</v>
       </c>
       <c r="S22">
-        <v>1.823771289672316E-05</v>
+        <v>7.308458522364064E-06</v>
       </c>
       <c r="T22">
-        <v>1.823771289672316E-05</v>
+        <v>7.308458522364065E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H23">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N23">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q23">
-        <v>5.873108286866777</v>
+        <v>1.891600459121777</v>
       </c>
       <c r="R23">
-        <v>52.857974581801</v>
+        <v>17.024404132096</v>
       </c>
       <c r="S23">
-        <v>0.0009018380142489358</v>
+        <v>0.0002710381959465347</v>
       </c>
       <c r="T23">
-        <v>0.0009018380142489358</v>
+        <v>0.0002710381959465347</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H24">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I24">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J24">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N24">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O24">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P24">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q24">
-        <v>0.2890456495598889</v>
+        <v>0.368176942848</v>
       </c>
       <c r="R24">
-        <v>2.601410846039</v>
+        <v>3.313592485631999</v>
       </c>
       <c r="S24">
-        <v>4.438405387642684E-05</v>
+        <v>5.27542768862312E-05</v>
       </c>
       <c r="T24">
-        <v>4.438405387642684E-05</v>
+        <v>5.27542768862312E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="H25">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="I25">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="J25">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N25">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O25">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P25">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q25">
-        <v>0.7430377459655555</v>
+        <v>0.1223277116657777</v>
       </c>
       <c r="R25">
-        <v>6.687339713689999</v>
+        <v>1.100949404992</v>
       </c>
       <c r="S25">
-        <v>0.0001140962591873256</v>
+        <v>1.752774066229267E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001140962591873256</v>
+        <v>1.752774066229267E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H26">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I26">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J26">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N26">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O26">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P26">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q26">
-        <v>7.974051626555887</v>
+        <v>18.960339004464</v>
       </c>
       <c r="R26">
-        <v>71.76646463900299</v>
+        <v>170.643051040176</v>
       </c>
       <c r="S26">
-        <v>0.001224445818663446</v>
+        <v>0.002716734421121115</v>
       </c>
       <c r="T26">
-        <v>0.001224445818663446</v>
+        <v>0.002716734421121115</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H27">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I27">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J27">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O27">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P27">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q27">
-        <v>1.305295005081333</v>
+        <v>2.929666094784</v>
       </c>
       <c r="R27">
-        <v>11.747655045732</v>
+        <v>26.366994853056</v>
       </c>
       <c r="S27">
-        <v>0.0002004329901466206</v>
+        <v>0.0004197775535668051</v>
       </c>
       <c r="T27">
-        <v>0.0002004329901466206</v>
+        <v>0.0004197775535668051</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H28">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I28">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J28">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2170,28 +2170,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N28">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O28">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P28">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q28">
-        <v>0.005845319766333333</v>
+        <v>0.009927773855999999</v>
       </c>
       <c r="R28">
-        <v>0.05260787789700001</v>
+        <v>0.089349964704</v>
       </c>
       <c r="S28">
-        <v>8.975709817079496E-07</v>
+        <v>1.422502253432887E-06</v>
       </c>
       <c r="T28">
-        <v>8.975709817079496E-07</v>
+        <v>1.422502253432887E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H29">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I29">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J29">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N29">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O29">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P29">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q29">
-        <v>0.2890456495598889</v>
+        <v>0.368176942848</v>
       </c>
       <c r="R29">
-        <v>2.601410846039</v>
+        <v>3.313592485631999</v>
       </c>
       <c r="S29">
-        <v>4.438405387642684E-05</v>
+        <v>5.27542768862312E-05</v>
       </c>
       <c r="T29">
-        <v>4.438405387642684E-05</v>
+        <v>5.27542768862312E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H30">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I30">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J30">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N30">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O30">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P30">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q30">
-        <v>0.01422541241344444</v>
+        <v>0.07166114841599999</v>
       </c>
       <c r="R30">
-        <v>0.128028711721</v>
+        <v>0.6449503357439998</v>
       </c>
       <c r="S30">
-        <v>2.184365936432785E-06</v>
+        <v>1.02679761428833E-05</v>
       </c>
       <c r="T30">
-        <v>2.184365936432785E-06</v>
+        <v>1.02679761428833E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,46 +2338,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="H31">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="I31">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="J31">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N31">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O31">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P31">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q31">
-        <v>0.03656868176777778</v>
+        <v>0.02380959609599999</v>
       </c>
       <c r="R31">
-        <v>0.32911813591</v>
+        <v>0.2142863648639999</v>
       </c>
       <c r="S31">
-        <v>5.615259542021459E-06</v>
+        <v>3.411560798135778E-06</v>
       </c>
       <c r="T31">
-        <v>5.615259542021459E-06</v>
+        <v>3.411560798135778E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2394,22 +2394,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H32">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I32">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J32">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N32">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O32">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P32">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q32">
-        <v>20.49856607712555</v>
+        <v>6.299620136128443</v>
       </c>
       <c r="R32">
-        <v>184.48709469413</v>
+        <v>56.69658122515599</v>
       </c>
       <c r="S32">
-        <v>0.003147632432945953</v>
+        <v>0.0009026418177321847</v>
       </c>
       <c r="T32">
-        <v>0.003147632432945953</v>
+        <v>0.0009026418177321848</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2456,22 +2456,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H33">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I33">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J33">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O33">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P33">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q33">
-        <v>3.355468106413334</v>
+        <v>0.9733888997706667</v>
       </c>
       <c r="R33">
-        <v>30.19921295772001</v>
+        <v>8.760500097935999</v>
       </c>
       <c r="S33">
-        <v>0.0005152448322347918</v>
+        <v>0.0001394721438536293</v>
       </c>
       <c r="T33">
-        <v>0.0005152448322347918</v>
+        <v>0.0001394721438536293</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2518,22 +2518,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H34">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I34">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J34">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2542,28 +2542,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N34">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O34">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P34">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q34">
-        <v>0.01502632276333333</v>
+        <v>0.003298527736</v>
       </c>
       <c r="R34">
-        <v>0.13523690487</v>
+        <v>0.029686749624</v>
       </c>
       <c r="S34">
-        <v>2.307348753070166E-06</v>
+        <v>4.726299375398342E-07</v>
       </c>
       <c r="T34">
-        <v>2.307348753070166E-06</v>
+        <v>4.726299375398343E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2580,22 +2580,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H35">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I35">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J35">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N35">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O35">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P35">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q35">
-        <v>0.7430377459655555</v>
+        <v>0.1223277116657777</v>
       </c>
       <c r="R35">
-        <v>6.687339713689999</v>
+        <v>1.100949404992</v>
       </c>
       <c r="S35">
-        <v>0.0001140962591873256</v>
+        <v>1.752774066229267E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001140962591873256</v>
+        <v>1.752774066229267E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2642,22 +2642,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H36">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I36">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J36">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N36">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O36">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P36">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q36">
-        <v>0.03656868176777778</v>
+        <v>0.02380959609599999</v>
       </c>
       <c r="R36">
-        <v>0.32911813591</v>
+        <v>0.2142863648639999</v>
       </c>
       <c r="S36">
-        <v>5.615259542021459E-06</v>
+        <v>3.411560798135778E-06</v>
       </c>
       <c r="T36">
-        <v>5.615259542021459E-06</v>
+        <v>3.411560798135778E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2704,52 +2704,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="H37">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="I37">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="J37">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N37">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O37">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P37">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q37">
-        <v>0.09400560401111112</v>
+        <v>0.007910797953777776</v>
       </c>
       <c r="R37">
-        <v>0.8460504361000001</v>
+        <v>0.07119718158399997</v>
       </c>
       <c r="S37">
-        <v>1.443491642053139E-05</v>
+        <v>1.133499622264276E-06</v>
       </c>
       <c r="T37">
-        <v>1.443491642053139E-05</v>
+        <v>1.133499622264276E-06</v>
       </c>
     </row>
   </sheetData>
